--- a/Assessment 2/2-1_linearsearch.xlsx
+++ b/Assessment 2/2-1_linearsearch.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\filing_system_01\documents\education\software_development_year_02\01_data_structures\Assessment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\software_development_year_2\01_data_structures\Assessment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>index-&gt;</t>
   </si>
@@ -114,12 +114,45 @@
   </si>
   <si>
     <t>// not found</t>
+  </si>
+  <si>
+    <t>Initialize variables</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Exit as found</t>
+  </si>
+  <si>
+    <t>loop 7</t>
+  </si>
+  <si>
+    <t>loop 8</t>
+  </si>
+  <si>
+    <t>loop 9</t>
+  </si>
+  <si>
+    <t>loop 10</t>
+  </si>
+  <si>
+    <t>loop 11</t>
+  </si>
+  <si>
+    <t>loop 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,6 +212,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -646,11 +681,16 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="R7" s="3" t="s">
         <v>14</v>
       </c>
@@ -659,7 +699,15 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -675,7 +723,15 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -691,7 +747,15 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -704,7 +768,15 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -720,7 +792,15 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -733,9 +813,16 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="R13" s="3" t="s">
@@ -781,18 +868,31 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -803,7 +903,15 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -814,7 +922,15 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -825,7 +941,15 @@
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -835,7 +959,15 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -845,41 +977,129 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
       <c r="B25" s="1"/>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F29" s="4"/>
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
@@ -912,40 +1132,13 @@
       <c r="J33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
+  <mergeCells count="48">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="F23:G23"/>
@@ -958,6 +1151,36 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
